--- a/data/miscellaneous_monitoring/miscellaneous_monitoring.xlsx
+++ b/data/miscellaneous_monitoring/miscellaneous_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A6948-5D92-BB47-A4A2-21FACBF17078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4044D2C7-21DC-3B44-8149-E25374E2297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2024,13 +2024,13 @@
     <t>doy162: top half the tree is dead. Bottom is alive</t>
   </si>
   <si>
-    <t>chlorosis_144</t>
-  </si>
-  <si>
-    <t>light_stress_178</t>
-  </si>
-  <si>
-    <t>mildew_177</t>
+    <t>144_chlorosis</t>
+  </si>
+  <si>
+    <t>178_light_stress</t>
+  </si>
+  <si>
+    <t>177_mildew</t>
   </si>
 </sst>
 </file>
@@ -2903,8 +2903,8 @@
   <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2912,7 +2912,9 @@
     <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="10.83203125" style="2"/>
     <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
